--- a/src/main/resources/models/单选题模板.xlsx
+++ b/src/main/resources/models/单选题模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22536" windowHeight="11591"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="127">
   <si>
     <t>题干</t>
   </si>
@@ -72,7 +72,10 @@
     <t>备注信息1</t>
   </si>
   <si>
-    <t>1</t>
+    <t>对公</t>
+  </si>
+  <si>
+    <t>简单</t>
   </si>
   <si>
     <t>题干2</t>
@@ -84,7 +87,7 @@
     <t>备注信息2</t>
   </si>
   <si>
-    <t>2</t>
+    <t>中等</t>
   </si>
   <si>
     <t>题干3</t>
@@ -96,7 +99,7 @@
     <t>备注信息3</t>
   </si>
   <si>
-    <t>3</t>
+    <t>困难</t>
   </si>
   <si>
     <t>题干4</t>
@@ -108,6 +111,9 @@
     <t>备注信息4</t>
   </si>
   <si>
+    <t>对私</t>
+  </si>
+  <si>
     <t>题干5</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>备注信息7</t>
   </si>
   <si>
+    <t>公共</t>
+  </si>
+  <si>
     <t>题干8</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
   </si>
   <si>
     <t>备注信息10</t>
+  </si>
+  <si>
+    <t>国际</t>
   </si>
   <si>
     <t>题干11</t>
@@ -394,8 +406,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -412,8 +424,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,39 +499,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,8 +521,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,47 +553,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,14 +567,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -571,13 +583,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,13 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,19 +709,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,127 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,39 +774,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -824,6 +803,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -835,6 +823,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,10 +882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,137 +894,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1032,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,14 +1390,14 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:M$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2222222222222" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="12.225" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16376" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="16377" max="16384" width="12.2222222222222" style="1"/>
+    <col min="1" max="16376" width="12.225" style="1" customWidth="1"/>
+    <col min="16377" max="16384" width="12.225" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1407,10 +1425,10 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1439,16 +1457,16 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1466,21 +1484,21 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1498,21 +1516,21 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
+      <c r="I4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1530,21 +1548,21 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1562,21 +1580,21 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1597,18 +1615,18 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1626,21 +1644,21 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -1658,53 +1676,53 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
+      <c r="J10" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
@@ -1722,21 +1740,21 @@
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -1757,18 +1775,18 @@
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
@@ -1786,21 +1804,21 @@
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>26</v>
+      <c r="J13" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -1818,21 +1836,21 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -1850,21 +1868,21 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -1882,21 +1900,21 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
@@ -1917,18 +1935,18 @@
         <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
@@ -1946,21 +1964,21 @@
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -1978,21 +1996,21 @@
         <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -2010,21 +2028,21 @@
         <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -2042,21 +2060,21 @@
         <v>15</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>11</v>
@@ -2077,18 +2095,18 @@
         <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
@@ -2106,21 +2124,21 @@
         <v>15</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>18</v>
+        <v>70</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
@@ -2138,21 +2156,21 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -2170,21 +2188,21 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
@@ -2202,21 +2220,21 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>18</v>
+      <c r="J26" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
@@ -2237,18 +2255,18 @@
         <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>22</v>
+        <v>78</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -2266,21 +2284,21 @@
         <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
@@ -2298,21 +2316,21 @@
         <v>15</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
@@ -2330,21 +2348,21 @@
         <v>15</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
@@ -2362,21 +2380,21 @@
         <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>26</v>
+      <c r="J31" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
@@ -2397,18 +2415,18 @@
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -2426,21 +2444,21 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -2458,21 +2476,21 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
@@ -2490,21 +2508,21 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -2522,21 +2540,21 @@
         <v>15</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -2557,18 +2575,18 @@
         <v>16</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>11</v>
@@ -2586,21 +2604,21 @@
         <v>15</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>18</v>
+      <c r="J38" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
@@ -2618,21 +2636,21 @@
         <v>15</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
@@ -2650,21 +2668,21 @@
         <v>15</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
@@ -2682,21 +2700,21 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>18</v>
+      <c r="J41" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>11</v>
@@ -2717,18 +2735,18 @@
         <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
@@ -2746,21 +2764,21 @@
         <v>15</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>26</v>
+        <v>110</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>11</v>
@@ -2778,21 +2796,21 @@
         <v>15</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
@@ -2810,21 +2828,21 @@
         <v>15</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>22</v>
+        <v>114</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>11</v>
@@ -2842,21 +2860,21 @@
         <v>15</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
@@ -2877,18 +2895,18 @@
         <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>11</v>
@@ -2906,21 +2924,21 @@
         <v>15</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
@@ -2938,21 +2956,21 @@
         <v>15</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -2970,21 +2988,21 @@
         <v>15</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>18</v>
+      <c r="J50" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
@@ -3002,19 +3020,28 @@
         <v>15</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 J1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51">
+      <formula1>"对公,对私,公共,国际"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51">
+      <formula1>"简单,中等,困难"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3030,7 +3057,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3047,7 +3074,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/models/单选题模板.xlsx
+++ b/src/main/resources/models/单选题模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="22536" windowHeight="11591"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>对公</t>
   </si>
   <si>
-    <t>简单</t>
+    <t>高</t>
   </si>
   <si>
     <t>题干2</t>
@@ -87,7 +87,7 @@
     <t>备注信息2</t>
   </si>
   <si>
-    <t>中等</t>
+    <t>中</t>
   </si>
   <si>
     <t>题干3</t>
@@ -99,7 +99,7 @@
     <t>备注信息3</t>
   </si>
   <si>
-    <t>困难</t>
+    <t>低</t>
   </si>
   <si>
     <t>题干4</t>
@@ -405,9 +405,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -432,8 +432,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +448,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -454,9 +463,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +503,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,71 +544,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,14 +567,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -583,187 +583,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,32 +774,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -822,6 +796,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -851,17 +855,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,10 +882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,133 +894,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1390,14 +1390,14 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.225" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="12.2222222222222" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16376" width="12.225" style="1" customWidth="1"/>
-    <col min="16377" max="16384" width="12.225" style="1"/>
+    <col min="1" max="16376" width="12.2222222222222" style="1" customWidth="1"/>
+    <col min="16377" max="16384" width="12.2222222222222" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3038,8 +3038,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51">
       <formula1>"对公,对私,公共,国际"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 J29 J30 J31 J32 J33 J34 J35 J36 J37 J38 J39 J40 J41 J42 J43 J44 J45 J46 J47 J48 J49 J50 J51">
-      <formula1>"简单,中等,困难"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J51">
+      <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,7 +3057,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3074,7 +3074,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
